--- a/www/ig/fhir/pdsm/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/www/ig/fhir/pdsm/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T12:21:07+01:00</t>
+    <t>2024-05-29T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,13 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1206,10 +1210,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1390,17 +1394,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.09765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1409,26 +1413,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="34.68359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.1640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1650,16 +1654,16 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
@@ -1667,10 +1671,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1681,7 +1685,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1690,19 +1694,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1752,13 +1756,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1781,10 +1785,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1795,7 +1799,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -1804,16 +1808,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1864,19 +1868,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1893,10 +1897,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1907,28 +1911,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1978,19 +1982,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2007,10 +2011,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2021,7 +2025,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2033,16 +2037,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2068,13 +2072,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2092,19 +2096,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2121,10 +2125,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2135,7 +2139,7 @@
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2144,19 +2148,19 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2206,19 +2210,19 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2227,18 +2231,18 @@
         <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2246,10 +2250,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2258,19 +2262,19 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2278,7 +2282,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -2296,13 +2300,13 @@
         <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>75</v>
@@ -2320,19 +2324,19 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>75</v>
@@ -2344,15 +2348,15 @@
         <v>75</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2363,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2372,19 +2376,19 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2434,19 +2438,19 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -2455,18 +2459,18 @@
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2474,10 +2478,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2486,19 +2490,19 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2548,19 +2552,19 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -2577,10 +2581,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2600,19 +2604,19 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2662,7 +2666,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2674,7 +2678,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
@@ -2691,10 +2695,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2705,7 +2709,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2717,13 +2721,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2774,13 +2778,13 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
@@ -2792,7 +2796,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -2803,14 +2807,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2829,16 +2833,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2888,7 +2892,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2900,13 +2904,13 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -2917,14 +2921,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2937,25 +2941,25 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3004,7 +3008,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3016,13 +3020,13 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3033,10 +3037,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3044,10 +3048,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3056,16 +3060,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3116,19 +3120,19 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3145,10 +3149,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3156,10 +3160,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3168,16 +3172,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3228,19 +3232,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3257,10 +3261,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3280,16 +3284,16 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3328,17 +3332,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3350,7 +3354,7 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3367,10 +3371,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3381,7 +3385,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3393,13 +3397,13 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3450,13 +3454,13 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
@@ -3468,7 +3472,7 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
@@ -3479,14 +3483,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3505,16 +3509,16 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3564,7 +3568,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3576,13 +3580,13 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3593,14 +3597,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3613,25 +3617,25 @@
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3680,7 +3684,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3692,13 +3696,13 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3709,10 +3713,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3732,16 +3736,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3792,7 +3796,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3804,7 +3808,7 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -3821,10 +3825,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3835,7 +3839,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3844,19 +3848,19 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3906,19 +3910,19 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
@@ -3935,10 +3939,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3949,7 +3953,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3958,16 +3962,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4018,13 +4022,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -4047,10 +4051,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4061,7 +4065,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4070,16 +4074,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4130,19 +4134,19 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4163,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4173,7 +4177,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4185,13 +4189,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4242,13 +4246,13 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -4260,7 +4264,7 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -4271,14 +4275,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4297,16 +4301,16 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4356,7 +4360,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4368,13 +4372,13 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4385,14 +4389,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4405,25 +4409,25 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4472,7 +4476,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4484,13 +4488,13 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -4501,10 +4505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4515,7 +4519,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4524,19 +4528,19 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4562,13 +4566,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4586,19 +4590,19 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -4615,10 +4619,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4629,7 +4633,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4638,19 +4642,19 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4700,19 +4704,19 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -4729,10 +4733,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4743,7 +4747,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4752,16 +4756,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4812,19 +4816,19 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
@@ -4841,10 +4845,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4855,7 +4859,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4867,13 +4871,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4924,13 +4928,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -4942,7 +4946,7 @@
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -4953,14 +4957,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4979,16 +4983,16 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5038,7 +5042,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5050,13 +5054,13 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -5067,14 +5071,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5087,25 +5091,25 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5154,7 +5158,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5166,13 +5170,13 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -5183,10 +5187,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5194,10 +5198,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5206,16 +5210,16 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5242,13 +5246,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5266,19 +5270,19 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5295,10 +5299,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5306,10 +5310,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5318,19 +5322,19 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5380,19 +5384,19 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -5409,10 +5413,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5423,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5432,16 +5436,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5492,19 +5496,19 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5521,10 +5525,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5535,7 +5539,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5544,16 +5548,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5604,19 +5608,19 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5633,10 +5637,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5647,7 +5651,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5656,16 +5660,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5716,19 +5720,19 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5745,10 +5749,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5759,7 +5763,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5768,16 +5772,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5828,19 +5832,19 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5857,10 +5861,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5871,7 +5875,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5880,16 +5884,16 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5940,19 +5944,19 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -5969,10 +5973,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5983,7 +5987,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -5995,13 +5999,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6052,13 +6056,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6070,7 +6074,7 @@
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -6081,14 +6085,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6107,16 +6111,16 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6166,7 +6170,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6178,13 +6182,13 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -6195,14 +6199,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6215,25 +6219,25 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6282,7 +6286,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6294,13 +6298,13 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6311,10 +6315,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6322,10 +6326,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6334,16 +6338,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6394,19 +6398,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6423,10 +6427,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6437,7 +6441,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6446,16 +6450,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6506,19 +6510,19 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -6535,10 +6539,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6549,7 +6553,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6558,19 +6562,19 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6620,19 +6624,19 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
@@ -6649,10 +6653,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6663,7 +6667,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6672,19 +6676,19 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6734,19 +6738,19 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -6763,10 +6767,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6777,7 +6781,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6786,19 +6790,19 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6848,13 +6852,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -6877,13 +6881,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>75</v>
@@ -6902,16 +6906,16 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6962,7 +6966,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6974,7 +6978,7 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -6991,10 +6995,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7005,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7017,13 +7021,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7074,13 +7078,13 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
@@ -7092,7 +7096,7 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7103,14 +7107,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7129,16 +7133,16 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7188,7 +7192,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7200,13 +7204,13 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7217,14 +7221,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7237,25 +7241,25 @@
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7304,7 +7308,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7316,13 +7320,13 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7333,10 +7337,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7356,16 +7360,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7416,7 +7420,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7428,7 +7432,7 @@
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7445,10 +7449,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7456,10 +7460,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7468,19 +7472,19 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7530,19 +7534,19 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -7559,21 +7563,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7585,13 +7589,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7642,25 +7646,25 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7671,10 +7675,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7685,7 +7689,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7694,16 +7698,16 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7754,19 +7758,19 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
@@ -7783,10 +7787,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7797,7 +7801,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7809,13 +7813,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7866,13 +7870,13 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
@@ -7884,7 +7888,7 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -7895,14 +7899,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7921,16 +7925,16 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7980,7 +7984,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7992,13 +7996,13 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8009,14 +8013,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8029,25 +8033,25 @@
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -8096,7 +8100,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8108,13 +8112,13 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8125,10 +8129,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8139,7 +8143,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8148,19 +8152,19 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8186,13 +8190,13 @@
         <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8210,19 +8214,19 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8239,10 +8243,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8253,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8262,19 +8266,19 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8324,19 +8328,19 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -8353,10 +8357,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8367,7 +8371,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8376,16 +8380,16 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8436,19 +8440,19 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
@@ -8465,10 +8469,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8479,7 +8483,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8491,13 +8495,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8548,13 +8552,13 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
@@ -8566,7 +8570,7 @@
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -8577,14 +8581,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8603,16 +8607,16 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8662,7 +8666,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8674,13 +8678,13 @@
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -8691,14 +8695,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8711,25 +8715,25 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -8778,7 +8782,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8790,13 +8794,13 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -8807,10 +8811,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8818,10 +8822,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8830,16 +8834,16 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8866,13 +8870,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8890,19 +8894,19 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -8919,10 +8923,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8930,10 +8934,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -8942,19 +8946,19 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9004,19 +9008,19 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -9033,10 +9037,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9047,7 +9051,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9056,16 +9060,16 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9116,19 +9120,19 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9145,10 +9149,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9159,7 +9163,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -9168,16 +9172,16 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9228,19 +9232,19 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9257,10 +9261,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9271,7 +9275,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9280,16 +9284,16 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9340,19 +9344,19 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
@@ -9369,10 +9373,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9383,7 +9387,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9392,16 +9396,16 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9452,19 +9456,19 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
@@ -9481,10 +9485,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9495,7 +9499,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9504,16 +9508,16 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9564,19 +9568,19 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
@@ -9593,10 +9597,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9607,7 +9611,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9619,13 +9623,13 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9676,13 +9680,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -9694,7 +9698,7 @@
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -9705,14 +9709,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9731,16 +9735,16 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9790,7 +9794,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9802,13 +9806,13 @@
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -9819,14 +9823,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9839,25 +9843,25 @@
         <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -9906,7 +9910,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9918,13 +9922,13 @@
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>75</v>
@@ -9935,10 +9939,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9946,10 +9950,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9958,16 +9962,16 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10018,19 +10022,19 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10047,10 +10051,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10061,7 +10065,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -10070,16 +10074,16 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10130,19 +10134,19 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10159,10 +10163,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10173,7 +10177,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10182,19 +10186,19 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10244,19 +10248,19 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -10273,10 +10277,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10287,7 +10291,7 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
@@ -10296,19 +10300,19 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10358,19 +10362,19 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -10387,10 +10391,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10401,7 +10405,7 @@
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10410,19 +10414,19 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10472,13 +10476,13 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
@@ -10501,13 +10505,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>75</v>
@@ -10526,16 +10530,16 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10586,7 +10590,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10598,7 +10602,7 @@
         <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
@@ -10615,10 +10619,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10629,7 +10633,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
@@ -10641,13 +10645,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10698,13 +10702,13 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>75</v>
@@ -10716,7 +10720,7 @@
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>75</v>
@@ -10727,14 +10731,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10753,16 +10757,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10812,7 +10816,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10824,13 +10828,13 @@
         <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>75</v>
@@ -10841,14 +10845,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10861,25 +10865,25 @@
         <v>75</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -10928,7 +10932,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10940,13 +10944,13 @@
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>75</v>
@@ -10957,10 +10961,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10980,16 +10984,16 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11040,7 +11044,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11052,7 +11056,7 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
@@ -11069,10 +11073,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11080,10 +11084,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -11092,19 +11096,19 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11154,19 +11158,19 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
@@ -11183,21 +11187,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11209,13 +11213,13 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11266,25 +11270,25 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -11295,10 +11299,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11309,7 +11313,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11318,16 +11322,16 @@
         <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11378,19 +11382,19 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
@@ -11407,10 +11411,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11421,7 +11425,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -11433,13 +11437,13 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11490,13 +11494,13 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
@@ -11508,7 +11512,7 @@
         <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -11519,14 +11523,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11545,16 +11549,16 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11604,7 +11608,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11616,13 +11620,13 @@
         <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>75</v>
@@ -11633,14 +11637,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11653,25 +11657,25 @@
         <v>75</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>75</v>
@@ -11720,7 +11724,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -11732,13 +11736,13 @@
         <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -11749,10 +11753,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11763,7 +11767,7 @@
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -11772,19 +11776,19 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11810,13 +11814,13 @@
         <v>75</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>75</v>
@@ -11834,19 +11838,19 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
@@ -11863,10 +11867,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11877,7 +11881,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -11886,19 +11890,19 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11948,19 +11952,19 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
@@ -11977,10 +11981,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11991,7 +11995,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12000,16 +12004,16 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12060,19 +12064,19 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
@@ -12089,10 +12093,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12103,7 +12107,7 @@
         <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -12115,13 +12119,13 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12172,13 +12176,13 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>75</v>
@@ -12190,7 +12194,7 @@
         <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>75</v>
@@ -12201,14 +12205,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12227,16 +12231,16 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12286,7 +12290,7 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -12298,13 +12302,13 @@
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>75</v>
@@ -12315,14 +12319,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12335,25 +12339,25 @@
         <v>75</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>75</v>
@@ -12402,7 +12406,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -12414,13 +12418,13 @@
         <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>75</v>
@@ -12431,10 +12435,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12442,10 +12446,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>75</v>
@@ -12454,16 +12458,16 @@
         <v>75</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12490,13 +12494,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -12514,19 +12518,19 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -12543,10 +12547,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12554,10 +12558,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -12566,19 +12570,19 @@
         <v>75</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12628,19 +12632,19 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
@@ -12657,10 +12661,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12671,7 +12675,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -12680,16 +12684,16 @@
         <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12740,19 +12744,19 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>75</v>
@@ -12769,10 +12773,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12783,7 +12787,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -12792,16 +12796,16 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12852,19 +12856,19 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
@@ -12881,10 +12885,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12895,7 +12899,7 @@
         <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>75</v>
@@ -12904,16 +12908,16 @@
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12964,19 +12968,19 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
@@ -12993,10 +12997,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13007,7 +13011,7 @@
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
@@ -13016,16 +13020,16 @@
         <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13076,19 +13080,19 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>75</v>
@@ -13105,10 +13109,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13119,7 +13123,7 @@
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
@@ -13128,16 +13132,16 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13188,19 +13192,19 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
@@ -13217,10 +13221,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13231,7 +13235,7 @@
         <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>75</v>
@@ -13243,13 +13247,13 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13300,13 +13304,13 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
@@ -13318,7 +13322,7 @@
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>75</v>
@@ -13329,14 +13333,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13355,16 +13359,16 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13414,7 +13418,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -13426,13 +13430,13 @@
         <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>75</v>
@@ -13443,14 +13447,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13463,25 +13467,25 @@
         <v>75</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>75</v>
@@ -13530,7 +13534,7 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -13542,13 +13546,13 @@
         <v>75</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>75</v>
@@ -13559,10 +13563,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13570,10 +13574,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>75</v>
@@ -13582,16 +13586,16 @@
         <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13642,19 +13646,19 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>75</v>
@@ -13671,10 +13675,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13685,7 +13689,7 @@
         <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>75</v>
@@ -13694,16 +13698,16 @@
         <v>75</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13754,19 +13758,19 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>75</v>
@@ -13783,10 +13787,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13797,7 +13801,7 @@
         <v>76</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>75</v>
@@ -13806,19 +13810,19 @@
         <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13868,19 +13872,19 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>75</v>
@@ -13897,10 +13901,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13911,7 +13915,7 @@
         <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>75</v>
@@ -13920,19 +13924,19 @@
         <v>75</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -13982,19 +13986,19 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>75</v>
@@ -14011,10 +14015,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14025,7 +14029,7 @@
         <v>76</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>75</v>
@@ -14034,19 +14038,19 @@
         <v>75</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14096,13 +14100,13 @@
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>75</v>
@@ -14125,10 +14129,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14139,7 +14143,7 @@
         <v>76</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>75</v>
@@ -14148,22 +14152,22 @@
         <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>75</v>
@@ -14212,19 +14216,19 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>75</v>
